--- a/Не верстка/Технические файлы касающиеся добавления/Прайс по общим техническим характеристикам/Тех характеристики.xlsx
+++ b/Не верстка/Технические файлы касающиеся добавления/Прайс по общим техническим характеристикам/Тех характеристики.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ДОКУМЕНТЫ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Simfershop\Simfershop\Не верстка\Технические файлы касающиеся добавления\Прайс по общим техническим характеристикам\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA86E46-769C-4852-AEB4-AE30DC52B3A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="11100" yWindow="3120" windowWidth="17490" windowHeight="9825" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мини печи" sheetId="1" r:id="rId1"/>
@@ -25,10 +26,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Мини печи'!$A$1:$F$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Плиты!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -451,12 +457,6 @@
     <t>596/450/705</t>
   </si>
   <si>
-    <t>896/450/705</t>
-  </si>
-  <si>
-    <t>985/295/540</t>
-  </si>
-  <si>
     <t>690/445/650</t>
   </si>
   <si>
@@ -478,18 +478,12 @@
     <t>595/500/860</t>
   </si>
   <si>
-    <t>730/580/560</t>
-  </si>
-  <si>
     <t>19/21</t>
   </si>
   <si>
     <t>22/23</t>
   </si>
   <si>
-    <t>595/480/1160</t>
-  </si>
-  <si>
     <t>895/480/1160</t>
   </si>
   <si>
@@ -500,18 +494,30 @@
   </si>
   <si>
     <t>32/34</t>
+  </si>
+  <si>
+    <t>ШГВ  896/450/705</t>
+  </si>
+  <si>
+    <t>ШГВ   985/295/540</t>
+  </si>
+  <si>
+    <t>ШГВ   595/480/1160</t>
+  </si>
+  <si>
+    <t>ШГВ   730/580/560</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$$-C0C]_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$$-C0C]"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +577,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -912,7 +924,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1037,24 +1049,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,22 +1067,25 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,8 +1094,23 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1106,10 +1118,13 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal_Sayfa1" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal_Sayfa1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1145,7 +1160,7 @@
         <xdr:cNvPr id="2" name="Resim 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,7 +1209,7 @@
         <xdr:cNvPr id="3" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1237,7 +1252,7 @@
         <xdr:cNvPr id="4" name="Resim 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,7 +1295,7 @@
         <xdr:cNvPr id="5" name="Resim 341">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000056010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1344,7 @@
         <xdr:cNvPr id="7" name="Resim 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1393,7 @@
         <xdr:cNvPr id="9" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1442,7 @@
         <xdr:cNvPr id="10" name="Resim 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1491,7 @@
         <xdr:cNvPr id="11" name="Resim 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000058010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1540,7 @@
         <xdr:cNvPr id="12" name="Resim 342">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000057010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1589,7 @@
         <xdr:cNvPr id="13" name="Resim 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1638,7 @@
         <xdr:cNvPr id="14" name="Resim 345">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1687,7 @@
         <xdr:cNvPr id="15" name="Resim 346">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1736,7 @@
         <xdr:cNvPr id="16" name="Resim 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1785,7 @@
         <xdr:cNvPr id="17" name="Resim 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1834,7 @@
         <xdr:cNvPr id="18" name="Resim 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1892,7 @@
         <xdr:cNvPr id="19" name="Resim 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1941,7 @@
         <xdr:cNvPr id="20" name="Resim 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1990,7 @@
         <xdr:cNvPr id="25" name="Resim 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2039,7 @@
         <xdr:cNvPr id="26" name="Resim 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2073,7 +2088,7 @@
         <xdr:cNvPr id="27" name="Resim 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2137,7 @@
         <xdr:cNvPr id="28" name="Resim 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2181,7 @@
         <xdr:cNvPr id="29" name="Resim 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2225,7 @@
         <xdr:cNvPr id="30" name="Resim 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2278,7 @@
         <xdr:cNvPr id="31" name="Resim 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2287,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2307,7 +2322,7 @@
         <xdr:cNvPr id="32" name="Resim 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2366,7 @@
         <xdr:cNvPr id="33" name="Resim 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2410,7 @@
         <xdr:cNvPr id="34" name="Resim 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2454,7 @@
         <xdr:cNvPr id="35" name="Resim 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2498,7 @@
         <xdr:cNvPr id="36" name="Resim 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2507,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2532,7 +2547,7 @@
         <xdr:cNvPr id="37" name="Resim 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2556,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2581,7 +2596,7 @@
         <xdr:cNvPr id="38" name="Resim 334">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2630,7 +2645,7 @@
         <xdr:cNvPr id="39" name="Resim 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2654,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2679,7 +2694,7 @@
         <xdr:cNvPr id="40" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2703,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2729,7 +2744,7 @@
         <xdr:cNvPr id="41" name="Resim 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2753,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2778,7 +2793,7 @@
         <xdr:cNvPr id="42" name="Resim 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2802,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2827,7 +2842,301 @@
         <xdr:cNvPr id="43" name="Resim 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1053" t="1808" r="1412" b="2861"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31163764" y="146280"/>
+          <a:ext cx="1188127" cy="676572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1252994</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2482812</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>863312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Resim 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1509" t="3100"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28581807" y="156484"/>
+          <a:ext cx="1229818" cy="706828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5087940</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>154213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6280237</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>842077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Resim 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1051" t="3745" r="1443" b="2625"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32416753" y="154213"/>
+          <a:ext cx="1192297" cy="687864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5098143</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>958167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6337424</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1666875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Resim 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2773" t="3757" r="2773" b="3550"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32426956" y="958167"/>
+          <a:ext cx="1239281" cy="708708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54431</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1050023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1230312</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1700756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Resim 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6137" t="7687" r="4379" b="8862"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27383244" y="1050023"/>
+          <a:ext cx="1175881" cy="650733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1252890</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1047739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2452074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1722003</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Resim 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6163" t="8862" r="6511" b="8862"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28581703" y="1047739"/>
+          <a:ext cx="1199184" cy="674264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2579688</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1016000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3753919</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1691459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Resim 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,300 +3146,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1053" t="1808" r="1412" b="2861"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31163764" y="146280"/>
-          <a:ext cx="1188127" cy="676572"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1252994</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>156484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2482812</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>863312</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Resim 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1509" t="3100"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28581807" y="156484"/>
-          <a:ext cx="1229818" cy="706828"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5087940</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>154213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6280237</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>842077</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Resim 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1051" t="3745" r="1443" b="2625"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="32416753" y="154213"/>
-          <a:ext cx="1192297" cy="687864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5098143</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>958167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6337424</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1666875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Resim 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="2773" t="3757" r="2773" b="3550"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="32426956" y="958167"/>
-          <a:ext cx="1239281" cy="708708"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>54431</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1050023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1230312</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1700756</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Resim 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6137" t="7687" r="4379" b="8862"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27383244" y="1050023"/>
-          <a:ext cx="1175881" cy="650733"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1252890</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1047739</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2452074</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1722003</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Resim 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6163" t="8862" r="6511" b="8862"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28581703" y="1047739"/>
-          <a:ext cx="1199184" cy="674264"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2579688</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1016000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3753919</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1691459</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Resim 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3175,7 +3190,7 @@
         <xdr:cNvPr id="2" name="Resim 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,7 +3239,7 @@
         <xdr:cNvPr id="13" name="Resim 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3273,7 +3288,7 @@
         <xdr:cNvPr id="14" name="Resim 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3337,7 @@
         <xdr:cNvPr id="15" name="Resim 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3371,7 +3386,7 @@
         <xdr:cNvPr id="16" name="Resim 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3435,7 @@
         <xdr:cNvPr id="17" name="Resim 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,7 +3484,7 @@
         <xdr:cNvPr id="18" name="Resim 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3518,7 +3533,7 @@
         <xdr:cNvPr id="19" name="Resim 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3562,7 +3577,7 @@
         <xdr:cNvPr id="23" name="Resim 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3621,7 @@
         <xdr:cNvPr id="24" name="Resim 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,7 +3660,7 @@
         <xdr:cNvPr id="25" name="Resim 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3689,7 +3704,7 @@
         <xdr:cNvPr id="32" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3738,7 +3753,7 @@
         <xdr:cNvPr id="33" name="Resim 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3782,7 +3797,7 @@
         <xdr:cNvPr id="34" name="Resim 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3821,7 +3836,7 @@
         <xdr:cNvPr id="38" name="Resim 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,7 +3880,7 @@
         <xdr:cNvPr id="39" name="Resim 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3904,7 +3919,7 @@
         <xdr:cNvPr id="40" name="Resim 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3943,7 +3958,7 @@
         <xdr:cNvPr id="41" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3987,7 +4002,7 @@
         <xdr:cNvPr id="42" name="Resim 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4026,7 +4041,7 @@
         <xdr:cNvPr id="43" name="Resim 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4070,7 +4085,7 @@
         <xdr:cNvPr id="44" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEE3674-A953-402A-BBDA-CC4227042793}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4119,7 +4134,7 @@
         <xdr:cNvPr id="45" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E5E449-AC35-492B-9E81-86FFDC2E598C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4169,7 +4184,7 @@
         <xdr:cNvPr id="46" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E5E449-AC35-492B-9E81-86FFDC2E598C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4216,7 +4231,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Resim 6"/>
+        <xdr:cNvPr id="48" name="Resim 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4262,7 +4283,7 @@
         <xdr:cNvPr id="49" name="Resim 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4311,7 +4332,7 @@
         <xdr:cNvPr id="2" name="Resim 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4355,7 +4376,7 @@
         <xdr:cNvPr id="8" name="Resim 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4400,7 +4421,7 @@
         <xdr:cNvPr id="9" name="Resim 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4445,7 +4466,7 @@
         <xdr:cNvPr id="10" name="Resim 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4490,7 +4511,7 @@
         <xdr:cNvPr id="11" name="Resim 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4535,7 +4556,7 @@
         <xdr:cNvPr id="12" name="Resim 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4606,7 @@
         <xdr:cNvPr id="13" name="Resim 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4634,7 +4655,7 @@
         <xdr:cNvPr id="14" name="Resim 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4683,7 +4704,7 @@
         <xdr:cNvPr id="15" name="Resim 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4727,7 +4748,7 @@
         <xdr:cNvPr id="16" name="Resim 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4772,7 +4793,7 @@
         <xdr:cNvPr id="17" name="Resim 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4817,7 +4838,7 @@
         <xdr:cNvPr id="23" name="Resim 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4867,7 +4888,7 @@
         <xdr:cNvPr id="24" name="Resim 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4917,7 +4938,7 @@
         <xdr:cNvPr id="25" name="Resim 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4962,7 +4983,7 @@
         <xdr:cNvPr id="26" name="Resim 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5017,7 +5038,7 @@
         <xdr:cNvPr id="2" name="Resim 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5066,7 +5087,7 @@
         <xdr:cNvPr id="3" name="Resim 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5116,7 +5137,7 @@
         <xdr:cNvPr id="4" name="Resim 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5166,7 +5187,7 @@
         <xdr:cNvPr id="5" name="Resim 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5216,7 +5237,7 @@
         <xdr:cNvPr id="6" name="Resim 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5266,7 +5287,7 @@
         <xdr:cNvPr id="7" name="Resim 295">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000028010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5316,7 +5337,7 @@
         <xdr:cNvPr id="8" name="Resim 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5366,7 +5387,7 @@
         <xdr:cNvPr id="9" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5416,7 +5437,7 @@
         <xdr:cNvPr id="10" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5466,7 +5487,7 @@
         <xdr:cNvPr id="11" name="Resim 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5516,7 +5537,7 @@
         <xdr:cNvPr id="12" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5566,7 +5587,7 @@
         <xdr:cNvPr id="13" name="Resim 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000030010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5616,7 +5637,7 @@
         <xdr:cNvPr id="14" name="Resim 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5666,7 +5687,7 @@
         <xdr:cNvPr id="15" name="Resim 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5716,7 +5737,7 @@
         <xdr:cNvPr id="21" name="Resim 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5766,7 +5787,7 @@
         <xdr:cNvPr id="22" name="Resim 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5825,7 +5846,7 @@
         <xdr:cNvPr id="23" name="Resim 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,7 +5905,7 @@
         <xdr:cNvPr id="24" name="Resim 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5943,7 +5964,7 @@
         <xdr:cNvPr id="25" name="Resim 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5993,7 +6014,7 @@
         <xdr:cNvPr id="26" name="Resim 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6043,7 +6064,7 @@
         <xdr:cNvPr id="27" name="Resim 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6087,7 +6108,7 @@
         <xdr:cNvPr id="28" name="Resim 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6136,7 +6157,7 @@
         <xdr:cNvPr id="29" name="68 Resim" descr="H 6040 QEHM.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6210,7 +6231,7 @@
         <xdr:cNvPr id="30" name="Resim 304">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000031010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6260,7 +6281,7 @@
         <xdr:cNvPr id="31" name="Resim 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000032010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6310,7 +6331,7 @@
         <xdr:cNvPr id="32" name="Resim 306">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000033010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6360,7 +6381,7 @@
         <xdr:cNvPr id="33" name="Resim 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00002E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6409,7 +6430,7 @@
         <xdr:cNvPr id="34" name="Resim 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6459,7 +6480,7 @@
         <xdr:cNvPr id="35" name="Resim 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6509,7 +6530,7 @@
         <xdr:cNvPr id="36" name="Resim 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6553,7 +6574,7 @@
         <xdr:cNvPr id="37" name="1 Resim" descr="H 6401 AGSB.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6627,7 +6648,7 @@
         <xdr:cNvPr id="38" name="Resim 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6676,7 +6697,7 @@
         <xdr:cNvPr id="39" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6726,7 +6747,7 @@
         <xdr:cNvPr id="40" name="Resim 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6776,7 +6797,7 @@
         <xdr:cNvPr id="41" name="Resim 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6826,7 +6847,7 @@
         <xdr:cNvPr id="42" name="Resim 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6875,7 +6896,7 @@
         <xdr:cNvPr id="43" name="Resim 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6924,7 +6945,7 @@
         <xdr:cNvPr id="44" name="Resim 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6973,7 +6994,7 @@
         <xdr:cNvPr id="50" name="Resim 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7023,7 +7044,7 @@
         <xdr:cNvPr id="51" name="Resim 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7082,7 +7103,7 @@
         <xdr:cNvPr id="52" name="Resim 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7132,7 +7153,7 @@
         <xdr:cNvPr id="53" name="Resim 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7182,7 +7203,7 @@
         <xdr:cNvPr id="54" name="Resim 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000034010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7232,7 +7253,7 @@
         <xdr:cNvPr id="55" name="Resim 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7282,7 +7303,7 @@
         <xdr:cNvPr id="56" name="2 Resim" descr="H 7501 AGSB.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7356,7 +7377,7 @@
         <xdr:cNvPr id="57" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7406,7 +7427,7 @@
         <xdr:cNvPr id="65" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7455,7 +7476,7 @@
         <xdr:cNvPr id="66" name="Resim 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7505,7 +7526,7 @@
         <xdr:cNvPr id="67" name="Resim 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7555,7 +7576,7 @@
         <xdr:cNvPr id="68" name="Resim 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7604,7 +7625,7 @@
         <xdr:cNvPr id="69" name="Resim 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7654,7 +7675,7 @@
         <xdr:cNvPr id="70" name="Resim 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7704,7 +7725,7 @@
         <xdr:cNvPr id="71" name="Resim 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7754,7 +7775,7 @@
         <xdr:cNvPr id="72" name="Resim 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7804,7 +7825,7 @@
         <xdr:cNvPr id="73" name="Resim 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7854,7 +7875,7 @@
         <xdr:cNvPr id="74" name="Resim 308">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000035010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7904,7 +7925,7 @@
         <xdr:cNvPr id="75" name="Resim 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7954,7 +7975,7 @@
         <xdr:cNvPr id="76" name="Resim 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8004,7 +8025,7 @@
         <xdr:cNvPr id="77" name="Resim 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8054,7 +8075,7 @@
         <xdr:cNvPr id="78" name="3 Resim" descr="H 9501 AGSB.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8128,7 +8149,7 @@
         <xdr:cNvPr id="79" name="5 Resim" descr="H 9501 BGSB.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8202,7 +8223,7 @@
         <xdr:cNvPr id="89" name="Resim 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8257,7 +8278,7 @@
         <xdr:cNvPr id="2" name="Resim 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8306,7 +8327,7 @@
         <xdr:cNvPr id="17" name="Resim 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8364,7 +8385,7 @@
         <xdr:cNvPr id="18" name="Resim 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8413,7 +8434,7 @@
         <xdr:cNvPr id="20" name="Resim 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8452,8 +8473,8 @@
       <xdr:rowOff>71440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4026933</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1033</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>936625</xdr:rowOff>
     </xdr:to>
@@ -8462,7 +8483,7 @@
         <xdr:cNvPr id="21" name="Resim 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8511,7 +8532,7 @@
         <xdr:cNvPr id="22" name="Resim 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8555,7 +8576,7 @@
         <xdr:cNvPr id="23" name="Resim 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8568,7 +8589,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
+                <a14:imgLayer r:embed="rId9">
                   <a14:imgEffect>
                     <a14:brightnessContrast contrast="-20000"/>
                   </a14:imgEffect>
@@ -8608,7 +8629,7 @@
         <xdr:cNvPr id="24" name="Resim 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8617,7 +8638,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8652,7 +8673,7 @@
         <xdr:cNvPr id="25" name="Resim 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8661,7 +8682,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8696,7 +8717,7 @@
         <xdr:cNvPr id="26" name="Resim 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8705,7 +8726,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8740,7 +8761,7 @@
         <xdr:cNvPr id="27" name="Resim 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8749,7 +8770,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8784,7 +8805,7 @@
         <xdr:cNvPr id="28" name="Resim 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8797,7 +8818,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
+                <a14:imgLayer r:embed="rId9">
                   <a14:imgEffect>
                     <a14:brightnessContrast contrast="-20000"/>
                   </a14:imgEffect>
@@ -8837,7 +8858,7 @@
         <xdr:cNvPr id="29" name="Resim 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8846,7 +8867,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8881,7 +8902,7 @@
         <xdr:cNvPr id="30" name="Resim 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8890,7 +8911,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8925,7 +8946,7 @@
         <xdr:cNvPr id="31" name="Resim 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8934,7 +8955,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8969,7 +8990,7 @@
         <xdr:cNvPr id="32" name="Resim 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8978,7 +8999,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9018,7 +9039,7 @@
         <xdr:cNvPr id="43" name="Resim 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9027,7 +9048,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9067,7 +9088,100 @@
         <xdr:cNvPr id="44" name="Resim 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25317" t="9161" r="21900" b="25744"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12807396" y="87779"/>
+          <a:ext cx="1169126" cy="892049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2124846</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>103185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3095371</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>980847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Resim 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="26415" t="6976" r="22476" b="23710"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13935846" y="103185"/>
+          <a:ext cx="999100" cy="877662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87313</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101386</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1007152" cy="827304"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Resim 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9083,6 +9197,50 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect l="26523" t="5768" r="21178" b="27907"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11898313" y="101386"/>
+          <a:ext cx="1007152" cy="827304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>996396</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87779</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1169126" cy="892049"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Resim 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect l="25317" t="9161" r="21900" b="25744"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -9097,26 +9255,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2124846</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>103185</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3123946</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>980847</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Resim 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+    <xdr:ext cx="999100" cy="877662"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Resim 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9125,7 +9278,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9146,21 +9299,266 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3778246</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1865</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>976313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Resim 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25851" t="4826" r="24411" b="26466"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19891371" y="158751"/>
+          <a:ext cx="957544" cy="817562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55566</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>963038</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>873125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Resim 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24212" t="9342" r="25442" b="25390"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16168691" y="111125"/>
+          <a:ext cx="907472" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>944564</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>103189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1870075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>889001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Resim 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24913" t="10010" r="25996" b="25640"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17057689" y="103189"/>
+          <a:ext cx="925511" cy="785812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2837657</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>939272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Resim 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24946" t="6011" r="24078" b="21427"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18018125" y="79376"/>
+          <a:ext cx="932657" cy="859896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2865436</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3758405</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>936625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Resim 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="23801" t="6559" r="25993" b="24590"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18978561" y="103188"/>
+          <a:ext cx="892969" cy="833437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87313</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101386</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1007152" cy="827304"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Resim 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3778246</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="957544" cy="817562"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Resim 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9169,20 +9567,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="26523" t="5768" r="21178" b="27907"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25851" t="4826" r="24411" b="26466"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11898313" y="101386"/>
-          <a:ext cx="1007152" cy="827304"/>
+          <a:off x="18835684" y="158751"/>
+          <a:ext cx="957544" cy="817562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9193,18 +9591,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>996396</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>87779</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1169126" cy="892049"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Resim 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>55566</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="907472" cy="762000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Resim 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9213,20 +9611,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="25317" t="9161" r="21900" b="25744"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24212" t="9342" r="25442" b="25390"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12807396" y="87779"/>
-          <a:ext cx="1169126" cy="892049"/>
+          <a:off x="15113004" y="111125"/>
+          <a:ext cx="907472" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9237,18 +9635,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2124846</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>103185</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="999100" cy="877662"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Resim 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>944564</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>103189</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="925511" cy="785812"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Resim 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9257,154 +9655,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="26415" t="6976" r="22476" b="23710"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13935846" y="103185"/>
-          <a:ext cx="999100" cy="877662"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3778246</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4735790</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>976313</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Resim 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="25851" t="4826" r="24411" b="26466"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19891371" y="158751"/>
-          <a:ext cx="957544" cy="817562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>55566</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>963038</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>873125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Resim 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="24212" t="9342" r="25442" b="25390"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16168691" y="111125"/>
-          <a:ext cx="907472" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>944564</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>103189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1870075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>889001</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Resim 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9416,7 +9667,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17057689" y="103189"/>
+          <a:off x="16002002" y="103189"/>
           <a:ext cx="925511" cy="785812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9425,26 +9676,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2837657</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>939272</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Resim 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+    <xdr:ext cx="932657" cy="859896"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Resim 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9453,7 +9699,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9465,7 +9711,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18018125" y="79376"/>
+          <a:off x="16962438" y="79376"/>
           <a:ext cx="932657" cy="859896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9474,26 +9720,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2865436</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>103188</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3758405</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>936625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Resim 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+    <xdr:ext cx="892969" cy="833437"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Resim 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9502,7 +9743,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9514,226 +9755,6 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18978561" y="103188"/>
-          <a:ext cx="892969" cy="833437"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3778246</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="957544" cy="817562"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Resim 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="25851" t="4826" r="24411" b="26466"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18835684" y="158751"/>
-          <a:ext cx="957544" cy="817562"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>55566</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="907472" cy="762000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Resim 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="24212" t="9342" r="25442" b="25390"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15113004" y="111125"/>
-          <a:ext cx="907472" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>944564</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>103189</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="925511" cy="785812"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Resim 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="24913" t="10010" r="25996" b="25640"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16002002" y="103189"/>
-          <a:ext cx="925511" cy="785812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="932657" cy="859896"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Resim 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="24946" t="6011" r="24078" b="21427"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16962438" y="79376"/>
-          <a:ext cx="932657" cy="859896"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2865436</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="892969" cy="833437"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Resim 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="23801" t="6559" r="25993" b="24590"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="17922874" y="103188"/>
           <a:ext cx="892969" cy="833437"/>
         </a:xfrm>
@@ -9762,7 +9783,7 @@
         <xdr:cNvPr id="59" name="Resim 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9771,7 +9792,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9811,7 +9832,7 @@
         <xdr:cNvPr id="60" name="Resim 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9820,7 +9841,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9860,7 +9881,7 @@
         <xdr:cNvPr id="61" name="Resim 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9869,7 +9890,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9909,7 +9930,7 @@
         <xdr:cNvPr id="62" name="Resim 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9918,7 +9939,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9958,7 +9979,7 @@
         <xdr:cNvPr id="63" name="Resim 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9967,7 +9988,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10007,7 +10028,7 @@
         <xdr:cNvPr id="64" name="Resim 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10016,7 +10037,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10056,7 +10077,7 @@
         <xdr:cNvPr id="65" name="Resim 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10065,7 +10086,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10095,8 +10116,8 @@
       <xdr:rowOff>108861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>5820819</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3161</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>923164</xdr:rowOff>
     </xdr:to>
@@ -10105,7 +10126,7 @@
         <xdr:cNvPr id="70" name="Resim 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10114,7 +10135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10154,7 +10175,7 @@
         <xdr:cNvPr id="74" name="Resim 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10163,7 +10184,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10193,8 +10214,8 @@
       <xdr:rowOff>52759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6030361</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4211</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>901539</xdr:rowOff>
     </xdr:to>
@@ -10203,7 +10224,7 @@
         <xdr:cNvPr id="84" name="Resim 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10212,7 +10233,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10242,8 +10263,8 @@
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4310060</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6877</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>956496</xdr:rowOff>
     </xdr:to>
@@ -10252,7 +10273,7 @@
         <xdr:cNvPr id="85" name="Resim 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10261,7 +10282,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10301,7 +10322,7 @@
         <xdr:cNvPr id="86" name="Resim 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10310,7 +10331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10341,7 +10362,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1929115</xdr:colOff>
+      <xdr:colOff>1919590</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>947152</xdr:rowOff>
     </xdr:to>
@@ -10350,7 +10371,7 @@
         <xdr:cNvPr id="87" name="Resim 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10359,7 +10380,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10646,34 +10667,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.453125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="76.1796875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="76.1796875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="43.453125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="100.1796875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="44.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="76.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="100.140625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10684,7 +10705,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -10713,7 +10734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>76</v>
       </c>
@@ -10726,7 +10747,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>77</v>
       </c>
@@ -10755,7 +10776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>78</v>
       </c>
@@ -10784,7 +10805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -10797,7 +10818,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>80</v>
       </c>
@@ -10826,7 +10847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>79</v>
       </c>
@@ -10855,7 +10876,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>81</v>
       </c>
@@ -10868,7 +10889,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -10905,7 +10926,7 @@
         <v>9.1508999999999993E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>83</v>
       </c>
@@ -10942,7 +10963,7 @@
         <v>0.12025</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -10955,7 +10976,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -10984,7 +11005,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -10994,7 +11015,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -11004,7 +11025,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -11022,7 +11043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11035,19 +11056,19 @@
       <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.453125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.36328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" style="16" customWidth="1"/>
-    <col min="5" max="6" width="65.453125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="16" customWidth="1"/>
+    <col min="5" max="6" width="65.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="18" style="16" customWidth="1"/>
-    <col min="8" max="8" width="58.81640625" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="3"/>
+    <col min="8" max="8" width="58.85546875" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11057,7 +11078,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -11083,7 +11104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
@@ -11095,7 +11116,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>77</v>
       </c>
@@ -11121,7 +11142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>85</v>
       </c>
@@ -11143,7 +11164,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>86</v>
       </c>
@@ -11169,7 +11190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -11181,7 +11202,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -11207,7 +11228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -11233,7 +11254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>81</v>
       </c>
@@ -11245,7 +11266,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>88</v>
       </c>
@@ -11278,7 +11299,7 @@
         <v>0.424742326</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>89</v>
       </c>
@@ -11305,7 +11326,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>90</v>
       </c>
@@ -11338,7 +11359,7 @@
         <v>0.56791462500000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -11350,7 +11371,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -11372,7 +11393,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
@@ -11398,7 +11419,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -11407,7 +11428,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -11416,7 +11437,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -11433,7 +11454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11446,22 +11467,22 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.453125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="54.6328125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="16" customWidth="1"/>
     <col min="3" max="3" width="71" style="16" customWidth="1"/>
-    <col min="4" max="4" width="62.90625" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="3"/>
+    <col min="4" max="4" width="62.85546875" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -11475,7 +11496,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -11483,7 +11504,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>77</v>
       </c>
@@ -11497,7 +11518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>86</v>
       </c>
@@ -11509,7 +11530,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>91</v>
       </c>
@@ -11521,7 +11542,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -11529,7 +11550,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -11543,7 +11564,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -11557,7 +11578,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>81</v>
       </c>
@@ -11565,7 +11586,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>88</v>
       </c>
@@ -11582,7 +11603,7 @@
         <v>0.3012128</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>90</v>
       </c>
@@ -11596,7 +11617,7 @@
         <v>0.41745375000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>92</v>
       </c>
@@ -11610,7 +11631,7 @@
       </c>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -11618,7 +11639,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -11630,7 +11651,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>67</v>
       </c>
@@ -11650,7 +11671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11663,24 +11684,24 @@
       <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.453125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="41.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="33.81640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="72.26953125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="111.26953125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="53.90625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="92.81640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="85.08984375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="26.36328125" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="44.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="72.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="111.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="92.85546875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="85.140625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="32"/>
       <c r="C1" s="33"/>
@@ -11694,7 +11715,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="26"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
@@ -11732,7 +11753,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -11748,7 +11769,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>77</v>
       </c>
@@ -11784,7 +11805,7 @@
       </c>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>86</v>
       </c>
@@ -11800,35 +11821,35 @@
       <c r="K5" s="9"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="48" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="29" t="s">
         <v>112</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="59"/>
+      <c r="J6" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="49"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
@@ -11844,7 +11865,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>10</v>
       </c>
@@ -11880,7 +11901,7 @@
       </c>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>26</v>
       </c>
@@ -11916,7 +11937,7 @@
       </c>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>81</v>
       </c>
@@ -11932,7 +11953,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>88</v>
       </c>
@@ -11978,7 +11999,7 @@
       </c>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>90</v>
       </c>
@@ -11994,20 +12015,20 @@
       <c r="K12" s="19"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="52">
         <f>(350*570*150)/1000000000</f>
         <v>2.9925E-2</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="50">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54">
         <f>(480*560*140)/1000000000</f>
         <v>3.7631999999999999E-2</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="21">
         <f>(620*570*130)/1000000000</f>
         <v>4.5941999999999997E-2</v>
@@ -12016,19 +12037,19 @@
         <f>(635*615*160)/1000000000</f>
         <v>6.2483999999999998E-2</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="54">
         <f>(730*610*155)/1000000000</f>
         <v>6.90215E-2</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="50">
+      <c r="I13" s="55"/>
+      <c r="J13" s="54">
         <f>(900*610*155)/1000000000</f>
         <v>8.5095000000000004E-2</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
@@ -12044,7 +12065,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>17</v>
       </c>
@@ -12060,48 +12081,48 @@
       <c r="K15" s="14"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="50">
         <v>2244</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="52">
+      <c r="C16" s="51"/>
+      <c r="D16" s="56">
         <v>1728</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="10">
         <v>1368</v>
       </c>
       <c r="G16" s="10">
         <v>1064</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="56">
         <v>912</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="52">
+      <c r="I16" s="57"/>
+      <c r="J16" s="56">
         <v>912</v>
       </c>
-      <c r="K16" s="53"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
@@ -12110,35 +12131,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.453125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="59.6328125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" style="16" customWidth="1"/>
     <col min="3" max="3" width="65" style="16" customWidth="1"/>
-    <col min="4" max="4" width="46.453125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="68.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="68.5703125" style="16" customWidth="1"/>
     <col min="6" max="6" width="84" style="16" customWidth="1"/>
-    <col min="7" max="7" width="62.90625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="62.54296875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="88.08984375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="28.90625" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="62.85546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="88.140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12150,7 +12171,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -12182,21 +12203,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>77</v>
       </c>
@@ -12206,39 +12227,39 @@
       <c r="C4" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="67"/>
+      <c r="D4" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="62"/>
       <c r="F4" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="67"/>
+        <v>153</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="62"/>
       <c r="J4" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>91</v>
       </c>
@@ -12248,39 +12269,39 @@
       <c r="C6" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="49"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -12291,24 +12312,24 @@
         <v>101</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E8" s="70"/>
       <c r="F8" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>105</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="70"/>
       <c r="J8" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -12323,34 +12344,34 @@
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>122</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="70"/>
       <c r="J9" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>88</v>
       </c>
@@ -12366,7 +12387,7 @@
         <f>(595*500*855)/1000000000</f>
         <v>0.25436249999999999</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="19">
         <f>(595*480*1160)/1000000000</f>
         <v>0.33129599999999998</v>
@@ -12379,27 +12400,27 @@
         <f>(895*500*855)/1000000000</f>
         <v>0.38261250000000002</v>
       </c>
-      <c r="I11" s="51"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="19">
         <f>(895*480*1160)/1000000000</f>
         <v>0.498336</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="63"/>
-      <c r="E12" s="51"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="63"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>92</v>
       </c>
@@ -12415,7 +12436,7 @@
         <f>(690*445*650)/1000000000</f>
         <v>0.1995825</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="19">
         <f>(730*580*560)/1000000000</f>
         <v>0.23710400000000001</v>
@@ -12428,41 +12449,41 @@
         <f>(990*495*650)/1000000000</f>
         <v>0.3185325</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="19">
         <f>(990*550*550)/1000000000</f>
         <v>0.29947499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="60"/>
-      <c r="E15" s="53"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="53"/>
+      <c r="I15" s="57"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>67</v>
       </c>
@@ -12475,7 +12496,7 @@
       <c r="D16" s="60">
         <v>352</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="14">
         <v>260</v>
       </c>
@@ -12485,27 +12506,13 @@
       <c r="H16" s="60">
         <v>192</v>
       </c>
-      <c r="I16" s="53"/>
+      <c r="I16" s="57"/>
       <c r="J16" s="14">
         <v>192</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H3:I3"/>
@@ -12520,6 +12527,20 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
